--- a/Backend/uploads/app_sug_2.xlsx
+++ b/Backend/uploads/app_sug_2.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="626" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14940" tabRatio="964"/>
   </bookViews>
   <sheets>
-    <sheet name="MDI advice before planned ex" sheetId="1" r:id="rId1"/>
-    <sheet name="MDI advice after planned ex" sheetId="2" r:id="rId2"/>
-    <sheet name="MDI advice before unplanned ex" sheetId="3" r:id="rId3"/>
-    <sheet name="MDI advice after unplanned ex" sheetId="4" r:id="rId4"/>
-    <sheet name="Pump advice before planned ex" sheetId="5" r:id="rId5"/>
-    <sheet name="Pump advice after planned ex" sheetId="6" r:id="rId6"/>
-    <sheet name="PUMP advice before unplanned ex" sheetId="7" r:id="rId7"/>
-    <sheet name="Pump advice after unplanned ex" sheetId="8" r:id="rId8"/>
-    <sheet name="Links to advice " sheetId="9" r:id="rId9"/>
+    <sheet name="MDIadviceBeforePlannedEx" sheetId="1" r:id="rId1"/>
+    <sheet name="MDIadviceAfterPlannedEx" sheetId="2" r:id="rId2"/>
+    <sheet name="MDIadviceBeforeUnplannedEx" sheetId="3" r:id="rId3"/>
+    <sheet name="MDIadviceAfterUnplannedEx" sheetId="4" r:id="rId4"/>
+    <sheet name="PumpAdviceBeforePlannedEx" sheetId="5" r:id="rId5"/>
+    <sheet name="PumpAdviceAfterPlannedEx" sheetId="6" r:id="rId6"/>
+    <sheet name="PumpAdviceBeforeUnplannedEx" sheetId="7" r:id="rId7"/>
+    <sheet name="PumpAdviceAfterUnplannedEx" sheetId="8" r:id="rId8"/>
+    <sheet name="LinksToAdvice" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="206">
   <si>
     <r>
       <rPr>
@@ -1648,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView topLeftCell="H54" workbookViewId="0">
-      <selection activeCell="S68" sqref="S1:W68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1658,7 +1658,7 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" customWidth="1"/>
     <col min="6" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1965,7 +1965,9 @@
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>5</v>
       </c>
@@ -4858,7 +4860,9 @@
       <c r="C56" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="22"/>
+      <c r="D56" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="E56" s="22" t="s">
         <v>5</v>
       </c>
@@ -5315,7 +5319,7 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6025,7 +6029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
@@ -7158,7 +7162,8 @@
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" customWidth="1"/>
+    <col min="5" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
@@ -8208,7 +8213,7 @@
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Backend/uploads/app_sug_2.xlsx
+++ b/Backend/uploads/app_sug_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14940" tabRatio="964"/>
+    <workbookView xWindow="1980" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="964" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MDIadviceBeforePlannedEx" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="207">
   <si>
     <r>
       <rPr>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">Mild </t>
   </si>
   <si>
-    <t xml:space="preserve">0-30mins </t>
-  </si>
-  <si>
     <t xml:space="preserve">After meal </t>
   </si>
   <si>
@@ -176,9 +173,6 @@
   </si>
   <si>
     <t>3. Check blood glucose before you start  (aim for a starting blood glucose between 5-7mmol/l) and at the end of exercise</t>
-  </si>
-  <si>
-    <t>30-60mins/ 60-150mins/ &gt;150mins</t>
   </si>
   <si>
     <t xml:space="preserve">As your exercise is before your meal you will have less active insulin on board and therefore you will need less carbohydrate to prevent hypoglycaemia </t>
@@ -292,9 +286,6 @@
     <t>Mild/moderate/intense</t>
   </si>
   <si>
-    <t>0-30mins/ 30-60mins/ 60-150mins/ &gt;150mins</t>
-  </si>
-  <si>
     <t>1. For your first meal eaten after exercise reduce  mealtime insulin by 50%</t>
   </si>
   <si>
@@ -305,9 +296,6 @@
   </si>
   <si>
     <t>extremely intense</t>
-  </si>
-  <si>
-    <t>0-30mins</t>
   </si>
   <si>
     <t>1. Your blood glucose may be high after this high intensity exercise. Try a 20-30mins cool down (light jog &amp; stretching) or take 50% of your normal correction dose post exercise to help reduce blood glucose</t>
@@ -887,6 +875,21 @@
   </si>
   <si>
     <t>LinkType</t>
+  </si>
+  <si>
+    <t>Duration in mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-30 </t>
+  </si>
+  <si>
+    <t>0-30</t>
+  </si>
+  <si>
+    <t>30-60/ 60-150/ &gt;150</t>
+  </si>
+  <si>
+    <t>0-30/ 30-60/ 60-150/ &gt;150</t>
   </si>
 </sst>
 </file>
@@ -1648,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1676,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1695,33 +1698,33 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6"/>
       <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6"/>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1">
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1729,35 +1732,35 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6"/>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1">
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1765,38 +1768,38 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1">
       <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1804,26 +1807,26 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
         <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="E17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1850,7 +1853,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="20" spans="1:22" ht="28">
+    <row r="20" spans="1:22">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
@@ -1858,101 +1861,101 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="D21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="E22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="7" customFormat="1">
       <c r="E23" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="D25" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="E26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="7" customFormat="1">
       <c r="E27" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="3" customFormat="1">
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1024" s="3" customFormat="1">
@@ -1974,2879 +1977,2879 @@
     </row>
     <row r="34" spans="1:1024" ht="28">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:1024">
       <c r="D35" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:1024">
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:1024">
       <c r="E37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1024">
       <c r="D38" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1024" s="7" customFormat="1">
       <c r="D39" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1024">
       <c r="A40" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" t="s">
         <v>24</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:1024">
       <c r="B41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1024" s="7" customFormat="1">
       <c r="E42" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:1024" s="3" customFormat="1"/>
-    <row r="45" spans="1:1024" ht="28">
+    <row r="45" spans="1:1024">
       <c r="A45" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:1024">
       <c r="D46" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:1024">
       <c r="E47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="DZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ED47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ER47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ES47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ET47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="EZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="FZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="GZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="HZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ID47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="II47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="IZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="JZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="KZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="LZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ME47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ML47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="MZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ND47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="NZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ON47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="OZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="PZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="QZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="RZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ST47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="SZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="TZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="US47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="UZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="VZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="WZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="XZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="YZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ZZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AAZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ABZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ACZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ADZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AED47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AER47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AES47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AET47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AEZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AFZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AGZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AHZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AID47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AII47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AIZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AKZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALE47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALK47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALL47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALM47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALN47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALO47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALP47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALQ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALR47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALS47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALT47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALU47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALV47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALW47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALX47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALY47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="ALZ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AMA47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AMB47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AMC47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AMD47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AME47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AMF47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AMG47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AMH47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AMI47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AMJ47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1024">
       <c r="E48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="D49" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="D50" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
         <v>37</v>
-      </c>
-      <c r="E50" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="28">
+    <row r="52" spans="1:5" s="18" customFormat="1">
       <c r="A52" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="3" customFormat="1">
       <c r="B54" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="21" customFormat="1"/>
@@ -4869,94 +4872,94 @@
     </row>
     <row r="57" spans="1:5" s="21" customFormat="1">
       <c r="A57" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="28">
       <c r="A58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C58" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="B59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="7" customFormat="1"/>
-    <row r="62" spans="1:5" s="21" customFormat="1" ht="28">
+    <row r="62" spans="1:5" s="21" customFormat="1">
       <c r="A62" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="28">
       <c r="A63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>47</v>
-      </c>
       <c r="C63" s="9" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="26"/>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1">
       <c r="E65" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="3" customFormat="1"/>
     <row r="67" spans="1:5" ht="14.25" customHeight="1"/>
     <row r="68" spans="1:5" s="29" customFormat="1">
       <c r="A68" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
@@ -4978,8 +4981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4992,7 +4995,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15">
       <c r="A1" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -5001,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -5032,13 +5035,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1">
@@ -5046,43 +5049,43 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="7" customFormat="1">
       <c r="A5" s="31"/>
       <c r="D5" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="31"/>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="31"/>
       <c r="D7" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="31"/>
       <c r="D8" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="7" customFormat="1">
       <c r="A9" s="31"/>
       <c r="D9" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="3" customFormat="1"/>
@@ -5119,16 +5122,16 @@
     </row>
     <row r="13" spans="1:21" ht="30" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -5136,7 +5139,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -5144,12 +5147,12 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="D16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="7" customFormat="1"/>
@@ -5186,30 +5189,30 @@
     </row>
     <row r="20" spans="1:22" s="21" customFormat="1">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="28">
       <c r="A21" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -5217,7 +5220,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -5225,58 +5228,58 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="D24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="7" customFormat="1"/>
-    <row r="26" spans="1:22" s="21" customFormat="1" ht="28">
+    <row r="26" spans="1:22" s="21" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:22" ht="28">
       <c r="A27" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="C28" s="9"/>
       <c r="D28" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="D29" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="D30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -5318,8 +5321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5333,7 +5336,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -5359,36 +5362,36 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:22">
       <c r="E4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="D5" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="7" customFormat="1">
       <c r="D6" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -5396,42 +5399,42 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="E9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="D10" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="7" customFormat="1">
       <c r="D11" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -5458,55 +5461,55 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="14" spans="1:22" ht="28">
+    <row r="14" spans="1:22">
       <c r="A14" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="E15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="7" customFormat="1">
       <c r="D17" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -5521,25 +5524,25 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="28">
+    <row r="19" spans="1:24">
       <c r="A19" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5586,17 +5589,17 @@
     </row>
     <row r="24" spans="1:24" s="7" customFormat="1" ht="28">
       <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
@@ -5608,7 +5611,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="E25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -5623,10 +5626,10 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -5634,53 +5637,53 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="3" customFormat="1">
       <c r="D28" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="7" customFormat="1">
       <c r="D29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" t="s">
         <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="E32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5688,10 +5691,10 @@
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5699,31 +5702,31 @@
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="7" customFormat="1"/>
-    <row r="37" spans="1:17" ht="28">
+    <row r="37" spans="1:17">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="E38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5731,10 +5734,10 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5742,62 +5745,62 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="21" customFormat="1">
       <c r="D41" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="7" customFormat="1">
       <c r="D42" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="18" customFormat="1" ht="28">
+    </row>
+    <row r="43" spans="1:17" s="18" customFormat="1">
       <c r="A43" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5863,103 +5866,103 @@
     </row>
     <row r="48" spans="1:17" s="21" customFormat="1">
       <c r="A48" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="21" customFormat="1">
       <c r="B50" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="D51" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="D52" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:17" s="7" customFormat="1"/>
-    <row r="54" spans="1:17" s="39" customFormat="1" ht="28">
+    <row r="54" spans="1:17" s="39" customFormat="1">
       <c r="A54" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B54" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G54" s="33"/>
     </row>
-    <row r="55" spans="1:17" ht="28">
+    <row r="55" spans="1:17">
       <c r="A55" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="26"/>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="E57" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -5967,10 +5970,10 @@
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -5978,10 +5981,10 @@
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -6005,7 +6008,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -6029,8 +6032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6043,7 +6046,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="15">
       <c r="A1" s="40" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="11"/>
@@ -6136,13 +6139,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -6184,7 +6187,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -6226,7 +6229,7 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -6268,28 +6271,28 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="D7" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="D8" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="7" customFormat="1">
       <c r="D9" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -6422,16 +6425,16 @@
     </row>
     <row r="13" spans="1:38" ht="28">
       <c r="A13" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -6473,7 +6476,7 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -6515,7 +6518,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -6557,7 +6560,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -6684,30 +6687,30 @@
     </row>
     <row r="19" spans="1:38" s="21" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="28">
       <c r="A20" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -6749,7 +6752,7 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -6791,7 +6794,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -6833,7 +6836,7 @@
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -6910,33 +6913,33 @@
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
     </row>
-    <row r="25" spans="1:38" s="39" customFormat="1" ht="28">
+    <row r="25" spans="1:38" s="39" customFormat="1">
       <c r="A25" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:38" ht="28">
       <c r="A26" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -6978,7 +6981,7 @@
       <c r="B27" s="11"/>
       <c r="C27" s="15"/>
       <c r="D27" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -7020,7 +7023,7 @@
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -7062,7 +7065,7 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -7154,8 +7157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7168,7 +7171,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15">
       <c r="A1" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -7183,7 +7186,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -7199,31 +7202,31 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1">
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -7231,34 +7234,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1">
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7266,34 +7269,34 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1">
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="44" customFormat="1">
@@ -7301,26 +7304,26 @@
         <v>6</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="7" customFormat="1">
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1"/>
@@ -7332,13 +7335,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7346,15 +7349,15 @@
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="E22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="7" customFormat="1">
@@ -7363,7 +7366,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5" customHeight="1">
@@ -7371,16 +7374,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7388,18 +7391,18 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="C26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="7" customFormat="1">
@@ -7408,7 +7411,7 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="18" customFormat="1" ht="32.25" customHeight="1">
@@ -7416,14 +7419,14 @@
         <v>6</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="31.5" customHeight="1">
@@ -7431,20 +7434,20 @@
         <v>6</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="14"/>
@@ -7478,7 +7481,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>5</v>
@@ -7486,19 +7489,19 @@
     </row>
     <row r="35" spans="1:7" ht="28.5" customHeight="1">
       <c r="A35" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="E35" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G35" s="11"/>
     </row>
@@ -7507,10 +7510,10 @@
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7519,7 +7522,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7528,7 +7531,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7536,10 +7539,10 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1">
@@ -7547,36 +7550,36 @@
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="11"/>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7585,7 +7588,7 @@
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7593,10 +7596,10 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7604,10 +7607,10 @@
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
         <v>37</v>
-      </c>
-      <c r="E45" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1">
@@ -7622,21 +7625,21 @@
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
-    <row r="48" spans="1:7" ht="28">
+    <row r="48" spans="1:7">
       <c r="A48" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -7644,15 +7647,15 @@
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="E50" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -7661,7 +7664,7 @@
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -7669,10 +7672,10 @@
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="7" customFormat="1">
@@ -7680,46 +7683,46 @@
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="28">
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="7" customFormat="1">
       <c r="A56" s="14"/>
       <c r="B56" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56" s="45"/>
       <c r="D56" s="14"/>
@@ -7758,7 +7761,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>5</v>
@@ -7766,43 +7769,43 @@
     </row>
     <row r="60" spans="1:15" s="21" customFormat="1">
       <c r="A60" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="28">
       <c r="A61" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="11"/>
       <c r="B62" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -7811,7 +7814,7 @@
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="7" customFormat="1">
@@ -7820,46 +7823,46 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
     </row>
-    <row r="65" spans="1:6" s="21" customFormat="1" ht="28">
+    <row r="65" spans="1:6" s="21" customFormat="1">
       <c r="A65" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B65" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F65" s="39"/>
     </row>
     <row r="66" spans="1:6" ht="29.25" customHeight="1">
       <c r="A66" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="46"/>
       <c r="B67" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7868,7 +7871,7 @@
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7877,7 +7880,7 @@
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="3" customFormat="1">
@@ -7894,7 +7897,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
@@ -7917,7 +7920,7 @@
   <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7930,7 +7933,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15">
       <c r="A1" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -7970,13 +7973,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -7984,17 +7987,17 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="D5" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="7" customFormat="1">
       <c r="D6" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -8002,28 +8005,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="D8" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="D9" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="7" customFormat="1">
       <c r="D10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="47" customFormat="1"/>
@@ -8060,30 +8063,30 @@
     </row>
     <row r="14" spans="1:21" s="21" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="31.5" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -8091,7 +8094,7 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -8099,12 +8102,12 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="D18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="48" customFormat="1"/>
@@ -8139,32 +8142,32 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
     </row>
-    <row r="22" spans="1:21" s="21" customFormat="1" ht="28">
+    <row r="22" spans="1:21" s="21" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="30" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -8172,7 +8175,7 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -8180,12 +8183,12 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="D26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="7" customFormat="1"/>
@@ -8204,8 +8207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8219,7 +8222,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15">
       <c r="A1" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -8260,14 +8263,14 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -8276,28 +8279,28 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="E5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="7" customFormat="1">
       <c r="D7" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -8305,14 +8308,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
@@ -8321,10 +8324,10 @@
     </row>
     <row r="10" spans="1:30">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -8332,10 +8335,10 @@
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -8343,10 +8346,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -8371,19 +8374,19 @@
       <c r="AD12" s="21"/>
     </row>
     <row r="13" spans="1:30" s="7" customFormat="1" ht="17.25" customHeight="1"/>
-    <row r="15" spans="1:30" ht="28">
+    <row r="15" spans="1:30">
       <c r="A15" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -8392,28 +8395,28 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="E17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="7" customFormat="1">
       <c r="D19" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="21" customFormat="1"/>
@@ -8422,14 +8425,14 @@
         <v>6</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -8466,17 +8469,17 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -8485,7 +8488,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -8493,10 +8496,10 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -8504,10 +8507,10 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -8516,7 +8519,7 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -8524,10 +8527,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="7" customFormat="1">
@@ -8535,36 +8538,36 @@
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="11"/>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:39">
@@ -8573,7 +8576,7 @@
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:39">
@@ -8581,10 +8584,10 @@
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:39">
@@ -8592,10 +8595,10 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:39">
@@ -8603,10 +8606,10 @@
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:39">
@@ -8614,10 +8617,10 @@
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:39">
@@ -8667,24 +8670,24 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:39" ht="28">
+    <row r="40" spans="1:39">
       <c r="A40" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="E41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:39">
@@ -8693,7 +8696,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:39">
@@ -8701,10 +8704,10 @@
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:39">
@@ -8712,10 +8715,10 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:39">
@@ -8723,10 +8726,10 @@
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:39" s="7" customFormat="1">
@@ -8734,25 +8737,25 @@
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" ht="28">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39">
       <c r="A47" s="49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D47" s="45"/>
       <c r="E47" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -8789,25 +8792,25 @@
       <c r="AL47" s="7"/>
       <c r="AM47" s="7"/>
     </row>
-    <row r="48" spans="1:39" ht="28">
+    <row r="48" spans="1:39">
       <c r="A48" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="14"/>
       <c r="B49" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
@@ -8881,42 +8884,42 @@
     </row>
     <row r="51" spans="1:39" s="21" customFormat="1">
       <c r="A51" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:39" ht="28.5" customHeight="1">
       <c r="A52" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="11"/>
       <c r="B53" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:39">
@@ -8925,23 +8928,23 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="D55" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="D56" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:39" s="7" customFormat="1">
@@ -8950,44 +8953,44 @@
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
     </row>
-    <row r="58" spans="1:39" s="21" customFormat="1" ht="28">
+    <row r="58" spans="1:39" s="21" customFormat="1">
       <c r="A58" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="29.25" customHeight="1">
       <c r="A59" s="35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D59" s="15"/>
       <c r="E59" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" s="46"/>
       <c r="B60" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:39">
@@ -8996,7 +8999,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:39">
@@ -9005,23 +9008,23 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="D63" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:39">
       <c r="D64" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="3" customFormat="1">
@@ -9032,7 +9035,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
@@ -9055,7 +9058,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9068,7 +9071,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15">
       <c r="A1" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -9108,13 +9111,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -9122,17 +9125,17 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="D5" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="7" customFormat="1">
       <c r="D6" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -9140,28 +9143,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="D8" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="D9" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="7" customFormat="1">
       <c r="D10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -9220,16 +9223,16 @@
     </row>
     <row r="14" spans="1:21" ht="31.5" customHeight="1">
       <c r="A14" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -9237,7 +9240,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -9245,12 +9248,12 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="D17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -9310,16 +9313,16 @@
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -9327,7 +9330,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -9335,12 +9338,12 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="D24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -9382,7 +9385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -9394,136 +9397,136 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="51" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="50" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="51" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="50" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="50" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="50" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="50" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
